--- a/fyp proposal/planning_fyp.xlsx
+++ b/fyp proposal/planning_fyp.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="31">
   <si>
     <t>First Semester:</t>
   </si>
@@ -106,6 +106,9 @@
   </si>
   <si>
     <t>Thesis writing</t>
+  </si>
+  <si>
+    <t>4. Block 5</t>
   </si>
 </sst>
 </file>
@@ -141,7 +144,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -158,6 +161,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -463,7 +469,7 @@
   <dimension ref="A1:B26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -489,7 +495,7 @@
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="6" t="s">
         <v>13</v>
       </c>
     </row>
@@ -497,49 +503,49 @@
       <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="5"/>
+      <c r="B4" s="6"/>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="5" t="s">
-        <v>14</v>
-      </c>
+      <c r="B5" s="6"/>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="5"/>
+      <c r="B6" s="6" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="5" t="s">
-        <v>15</v>
-      </c>
+      <c r="B7" s="6"/>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="5"/>
+      <c r="B8" s="6" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="5" t="s">
-        <v>16</v>
-      </c>
+      <c r="B9" s="6"/>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="5"/>
+      <c r="B10" s="5" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B11" s="4"/>
@@ -563,7 +569,9 @@
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B15" s="4"/>
+      <c r="B15" s="4" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
@@ -575,7 +583,7 @@
       <c r="A17" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B17" s="5" t="s">
+      <c r="B17" s="7" t="s">
         <v>25</v>
       </c>
     </row>
@@ -583,7 +591,7 @@
       <c r="A18" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B18" s="5"/>
+      <c r="B18" s="7"/>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
@@ -642,15 +650,14 @@
       <c r="B26" s="6"/>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="7">
     <mergeCell ref="B20:B21"/>
     <mergeCell ref="B22:B23"/>
     <mergeCell ref="B24:B26"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="B9:B10"/>
     <mergeCell ref="B17:B18"/>
+    <mergeCell ref="B3:B5"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="B8:B9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/fyp proposal/planning_fyp.xlsx
+++ b/fyp proposal/planning_fyp.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="75" windowWidth="21075" windowHeight="8265"/>
+    <workbookView xWindow="480" yWindow="105" windowWidth="27795" windowHeight="12600"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,99 +16,75 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="31">
-  <si>
-    <t>First Semester:</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+  <si>
+    <t>Week 6</t>
+  </si>
+  <si>
+    <t>Week 7</t>
+  </si>
+  <si>
+    <t>Block 2</t>
+  </si>
+  <si>
+    <t>Week 8</t>
+  </si>
+  <si>
+    <t>Week 9</t>
+  </si>
+  <si>
+    <t>Week 10</t>
+  </si>
+  <si>
+    <t>Block 3</t>
+  </si>
+  <si>
+    <t>Week 11</t>
+  </si>
+  <si>
+    <t>Week 12</t>
+  </si>
+  <si>
+    <t>Block 4</t>
+  </si>
+  <si>
+    <t>Week 13</t>
+  </si>
+  <si>
+    <t>Week 14</t>
+  </si>
+  <si>
+    <t>Block 5</t>
   </si>
   <si>
     <t>Week 1</t>
   </si>
   <si>
+    <t>Week 2</t>
+  </si>
+  <si>
+    <t>Week 3</t>
+  </si>
+  <si>
+    <t>Block 6</t>
+  </si>
+  <si>
+    <t>Week 4</t>
+  </si>
+  <si>
+    <t>Block 7</t>
+  </si>
+  <si>
     <t>Week 5</t>
   </si>
   <si>
-    <t>Week 6</t>
-  </si>
-  <si>
-    <t>Week 7</t>
-  </si>
-  <si>
-    <t>Week 8</t>
-  </si>
-  <si>
-    <t>Week 9</t>
-  </si>
-  <si>
-    <t>Week 10</t>
-  </si>
-  <si>
-    <t>Week 11</t>
-  </si>
-  <si>
-    <t>Week 12</t>
-  </si>
-  <si>
-    <t>Week 13</t>
-  </si>
-  <si>
-    <t>Week 14</t>
-  </si>
-  <si>
-    <t>Block 1 (Redo using random number generator)</t>
-  </si>
-  <si>
-    <t>Block 2</t>
-  </si>
-  <si>
-    <t>Block 3</t>
-  </si>
-  <si>
-    <t>Block 4</t>
-  </si>
-  <si>
-    <t>Block 5</t>
-  </si>
-  <si>
-    <t>Semester break:</t>
-  </si>
-  <si>
-    <t>1. Study Jang Sing's part.</t>
-  </si>
-  <si>
-    <t>2. Create Training data.</t>
-  </si>
-  <si>
-    <t>3. Train ANN (Training flow)</t>
-  </si>
-  <si>
-    <t>Second Semester:</t>
-  </si>
-  <si>
-    <t>Week 2</t>
-  </si>
-  <si>
-    <t>Week 3</t>
-  </si>
-  <si>
-    <t>Week 4</t>
-  </si>
-  <si>
-    <t>Continue semester break's work.</t>
-  </si>
-  <si>
-    <t>Block 6</t>
-  </si>
-  <si>
-    <t>Block 7</t>
-  </si>
-  <si>
-    <t>Integration</t>
-  </si>
-  <si>
-    <t>Thesis writing</t>
-  </si>
-  <si>
-    <t>4. Block 5</t>
+    <t>Intergration</t>
+  </si>
+  <si>
+    <t>Thesis</t>
+  </si>
+  <si>
+    <t>Viva preparation</t>
   </si>
 </sst>
 </file>
@@ -132,7 +108,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -140,30 +116,90 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -466,201 +502,125 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B26"/>
+  <dimension ref="A1:B14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="K4" sqref="K4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.42578125" customWidth="1"/>
-    <col min="2" max="2" width="69.42578125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="15.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" s="3"/>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+      <c r="B6" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+      <c r="B8" s="6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="6" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
+      <c r="B9" s="7"/>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="6"/>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" s="6"/>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
+      <c r="B10" s="8"/>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="6" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
+      <c r="B11" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="6"/>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B8" s="6" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
+      <c r="B12" s="6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="6"/>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
+      <c r="B13" s="7"/>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B11" s="4"/>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B13" s="4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B14" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B15" s="4" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>21</v>
-      </c>
-      <c r="B16" s="4"/>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B17" s="7" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B18" s="7"/>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B19" s="4" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B20" s="6" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B21" s="6"/>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B22" s="6" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B23" s="6"/>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B24" s="6" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B25" s="6"/>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B26" s="6"/>
+      <c r="B14" s="8"/>
     </row>
   </sheetData>
-  <mergeCells count="7">
-    <mergeCell ref="B20:B21"/>
-    <mergeCell ref="B22:B23"/>
-    <mergeCell ref="B24:B26"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="B3:B5"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="B8:B9"/>
+  <mergeCells count="2">
+    <mergeCell ref="B8:B10"/>
+    <mergeCell ref="B12:B14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
